--- a/Suvella/bin/Debug/net8.0-windows/orders.xlsx
+++ b/Suvella/bin/Debug/net8.0-windows/orders.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -53,21 +53,22 @@
     <t>Order Time</t>
   </si>
   <si>
-    <t>Hoang Dinh Cuong</t>
-  </si>
-  <si>
-    <t>08888888</t>
-  </si>
-  <si>
-    <t>Vinhomes Gardenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Su Sing vani: 1
-Bông lan trứng muối truyền thống: 1
+    <t>Quach Gia Hung</t>
+  </si>
+  <si>
+    <t>09899995</t>
+  </si>
+  <si>
+    <t>Quoc Tu Giam, Hoan Kiem, Ha Noi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red velvet: 1
+Red velvet: 1
+Red velvet: 2
 </t>
   </si>
   <si>
-    <t>2025-02-09 19:42</t>
+    <t>2025-02-09 22:45</t>
   </si>
   <si>
     <t>Unpaid</t>
@@ -85,39 +86,17 @@
     <t>0</t>
   </si>
   <si>
-    <t xml:space="preserve">Su Sing matcha: 1
+    <t xml:space="preserve">Su Sing mix 3 vị: 1
+Su Sing mix 3 vị: 1
+Su Sing mix 3 vị: 2
 </t>
   </si>
   <si>
-    <t>2025-02-09 19:46</t>
-  </si>
-  <si>
-    <t>Hoang Dinh Linh</t>
-  </si>
-  <si>
-    <t>23232</t>
-  </si>
-  <si>
-    <t>dadasdas</t>
-  </si>
-  <si>
-    <t>2025-02-09 19:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red velvet: 1
-Su Sing mix 3 vị: 1
+    <t>2025-02-09 22:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Su Sing mix 3 vị: 1
 </t>
-  </si>
-  <si>
-    <t>2025-02-09 19:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trà ô long kem mặn: 1
-Trà ô long kem mặn: 2
-</t>
-  </si>
-  <si>
-    <t>2025-02-09 20:01</t>
   </si>
 </sst>
 </file>
@@ -163,7 +142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -230,7 +209,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="0">
-        <v>110000</v>
+        <v>220000</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -271,7 +250,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="0">
-        <v>55000</v>
+        <v>220000</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -294,22 +273,22 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" s="0" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G4" s="0">
         <v>55000</v>
@@ -330,89 +309,7 @@
         <v>22</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="0">
-        <v>110000</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="0">
-        <v>105000</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Suvella/bin/Debug/net8.0-windows/orders.xlsx
+++ b/Suvella/bin/Debug/net8.0-windows/orders.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -97,6 +97,59 @@
   <si>
     <t xml:space="preserve">Su Sing mix 3 vị: 1
 </t>
+  </si>
+  <si>
+    <t>HOang Dinh Cuong</t>
+  </si>
+  <si>
+    <t>08888888</t>
+  </si>
+  <si>
+    <t>Vinhomes Gardenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Su Sing matcha: 1
+</t>
+  </si>
+  <si>
+    <t>2025-02-10 11:24</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Tra</t>
+  </si>
+  <si>
+    <t>423232</t>
+  </si>
+  <si>
+    <t>adadad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Su Sing matcha: 1
+Su Sing matcha: 2
+Bông lan trứng muối matcha: 1
+</t>
+  </si>
+  <si>
+    <t>Thinh</t>
+  </si>
+  <si>
+    <t>52423422</t>
+  </si>
+  <si>
+    <t>fadasda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Su Sing matcha: 1
+Su Sing matcha: 2
+Bông lan trứng muối matcha: 1
+Bông lan trứng muối matcha: 1
+</t>
+  </si>
+  <si>
+    <t>2025-02-10 11:25</t>
   </si>
 </sst>
 </file>
@@ -142,7 +195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -312,6 +365,129 @@
         <v>24</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="0">
+        <v>55000</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="0">
+        <v>230000</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="0">
+        <v>295000</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/Suvella/bin/Debug/net8.0-windows/orders.xlsx
+++ b/Suvella/bin/Debug/net8.0-windows/orders.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -99,6 +99,9 @@
 </t>
   </si>
   <si>
+    <t>Paid</t>
+  </si>
+  <si>
     <t>HOang Dinh Cuong</t>
   </si>
   <si>
@@ -113,9 +116,6 @@
   </si>
   <si>
     <t>2025-02-10 11:24</t>
-  </si>
-  <si>
-    <t>Paid</t>
   </si>
   <si>
     <t>Tra</t>
@@ -150,6 +150,44 @@
   </si>
   <si>
     <t>2025-02-10 11:25</t>
+  </si>
+  <si>
+    <t>Shipped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiramisu lady: 1
+</t>
+  </si>
+  <si>
+    <t>2025-02-11 10:11</t>
+  </si>
+  <si>
+    <t>Hoang Dinh Cuong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Su Sing vani: 1
+</t>
+  </si>
+  <si>
+    <t>2025-02-11 10:14</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Su Sing vani: 1
+Su Sing vani: 1
+</t>
+  </si>
+  <si>
+    <t>2025-02-11 10:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red velvet: 1
+</t>
+  </si>
+  <si>
+    <t>2025-02-11 10:32</t>
   </si>
 </sst>
 </file>
@@ -195,7 +233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -347,7 +385,7 @@
         <v>55000</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>19</v>
@@ -367,28 +405,28 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="0">
         <v>55000</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>19</v>
@@ -403,7 +441,7 @@
         <v>22</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -420,10 +458,10 @@
         <v>35</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="0">
         <v>230000</v>
@@ -444,7 +482,7 @@
         <v>22</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -461,7 +499,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>40</v>
@@ -473,7 +511,7 @@
         <v>18</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>20</v>
@@ -486,6 +524,170 @@
       </c>
       <c r="M7" s="0" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="0">
+        <v>65000</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="0">
+        <v>50000</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="0">
+        <v>100000</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="0">
+        <v>55000</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Suvella/bin/Debug/net8.0-windows/orders.xlsx
+++ b/Suvella/bin/Debug/net8.0-windows/orders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -95,7 +95,58 @@
     <t>27/02/2025</t>
   </si>
   <si>
+    <t>Paid</t>
+  </si>
+  <si>
     <t>28/02/2025</t>
+  </si>
+  <si>
+    <t>HOang Dinh Cuong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Su Sing vani: 1
+</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Su Sing vani: 2
+</t>
+  </si>
+  <si>
+    <t>10000.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matcha latte: 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiramisu lady: 1
+</t>
+  </si>
+  <si>
+    <t>6500.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matcha latte: 3
+</t>
+  </si>
+  <si>
+    <t>9000.0</t>
+  </si>
+  <si>
+    <t>Quach Gia Hung</t>
+  </si>
+  <si>
+    <t>09899997</t>
+  </si>
+  <si>
+    <t>Quoc Tu Giam, Hoan Kiem, Ha Noi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bông lan trứng muối matcha: 1
+</t>
   </si>
 </sst>
 </file>
@@ -432,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -630,7 +681,7 @@
         <v>130000</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>24</v>
@@ -665,13 +716,13 @@
         <v>15</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="0">
         <v>130000</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>19</v>
@@ -686,6 +737,375 @@
         <v>0</v>
       </c>
       <c r="M6" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="0">
+        <v>50000</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="0">
+        <v>110000</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="0">
+        <v>30000</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="0">
+        <v>88500</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="0">
+        <v>101000</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="0">
+        <v>65000</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="0">
+        <v>50000</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="0">
+        <v>65000</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="0">
+        <v>65000</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="0" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Suvella/bin/Debug/net8.0-windows/orders.xlsx
+++ b/Suvella/bin/Debug/net8.0-windows/orders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t xml:space="preserve">Bông lan trứng muối matcha: 1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiramisu lady: 1
 </t>
   </si>
 </sst>
@@ -483,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -1109,6 +1113,47 @@
         <v>17</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="0">
+        <v>65000</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Suvella/bin/Debug/net8.0-windows/orders.xlsx
+++ b/Suvella/bin/Debug/net8.0-windows/orders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -71,16 +71,66 @@
     <t>13/02/2025</t>
   </si>
   <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>Not Yet</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Su Sing vani: 1</t>
+  </si>
+  <si>
+    <t>Su Sing vani: 2</t>
+  </si>
+  <si>
     <t>Unpaid</t>
   </si>
   <si>
-    <t>Processing</t>
-  </si>
-  <si>
-    <t>Not Yet</t>
-  </si>
-  <si>
-    <t/>
+    <t>Matcha latte: 1</t>
+  </si>
+  <si>
+    <t>Tiramisu lady: 1</t>
+  </si>
+  <si>
+    <t>HOang Dinh Cuong</t>
+  </si>
+  <si>
+    <t>Matcha latte: 3</t>
+  </si>
+  <si>
+    <t>Quoc Tu Giam, Hoan Kiem, Ha Noi</t>
+  </si>
+  <si>
+    <t>Bông lan trứng muối matcha: 1</t>
+  </si>
+  <si>
+    <t>Quach Gia Hung</t>
+  </si>
+  <si>
+    <t>09899997</t>
+  </si>
+  <si>
+    <t>Bông lan trứng muối truyền thống: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bông lan trứng muối truyền thống: 1
+Bông lan trứng muối truyền thống: 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bông lan trứng muối truyền thống: 1
+Matcha latte: 1</t>
+  </si>
+  <si>
+    <t>Tiramisu chiffon: 1</t>
+  </si>
+  <si>
+    <t>Kien Hung, Ha Dong, Ha Noi</t>
   </si>
   <si>
     <t>15/02/2025</t>
@@ -92,65 +142,16 @@
     <t>Shipped</t>
   </si>
   <si>
+    <t>Thu Tra</t>
+  </si>
+  <si>
+    <t>97666666</t>
+  </si>
+  <si>
     <t>27/02/2025</t>
   </si>
   <si>
-    <t>Paid</t>
-  </si>
-  <si>
     <t>28/02/2025</t>
-  </si>
-  <si>
-    <t>HOang Dinh Cuong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Su Sing vani: 1
-</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Su Sing vani: 2
-</t>
-  </si>
-  <si>
-    <t>10000.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matcha latte: 1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiramisu lady: 1
-</t>
-  </si>
-  <si>
-    <t>6500.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matcha latte: 3
-</t>
-  </si>
-  <si>
-    <t>9000.0</t>
-  </si>
-  <si>
-    <t>Quach Gia Hung</t>
-  </si>
-  <si>
-    <t>09899997</t>
-  </si>
-  <si>
-    <t>Quoc Tu Giam, Hoan Kiem, Ha Noi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bông lan trứng muối matcha: 1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiramisu lady: 1
-</t>
   </si>
 </sst>
 </file>
@@ -487,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -591,16 +592,16 @@
         <v>15</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G3" s="0">
-        <v>130000</v>
+        <v>50000</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -632,22 +633,22 @@
         <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G4" s="0">
-        <v>130000</v>
+        <v>110000</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>20</v>
@@ -656,7 +657,7 @@
         <v>21</v>
       </c>
       <c r="L4" s="0">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>17</v>
@@ -673,22 +674,22 @@
         <v>15</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G5" s="0">
-        <v>130000</v>
+        <v>30000</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>20</v>
@@ -714,19 +715,19 @@
         <v>15</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G6" s="0">
-        <v>130000</v>
+        <v>88500</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>19</v>
@@ -738,7 +739,7 @@
         <v>21</v>
       </c>
       <c r="L6" s="0">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>17</v>
@@ -746,17 +747,17 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="E7" s="0" t="s">
         <v>15</v>
       </c>
@@ -764,10 +765,10 @@
         <v>17</v>
       </c>
       <c r="G7" s="0">
-        <v>50000</v>
+        <v>101000</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>19</v>
@@ -778,8 +779,8 @@
       <c r="K7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="0" t="s">
-        <v>30</v>
+      <c r="L7" s="0">
+        <v>9000</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>17</v>
@@ -796,7 +797,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>15</v>
@@ -805,10 +806,10 @@
         <v>17</v>
       </c>
       <c r="G8" s="0">
-        <v>110000</v>
+        <v>65000</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>19</v>
@@ -819,8 +820,8 @@
       <c r="K8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="0" t="s">
-        <v>32</v>
+      <c r="L8" s="0">
+        <v>0</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>17</v>
@@ -837,19 +838,19 @@
         <v>15</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="0">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>19</v>
@@ -860,8 +861,8 @@
       <c r="K9" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="0" t="s">
-        <v>30</v>
+      <c r="L9" s="0">
+        <v>0</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>17</v>
@@ -878,7 +879,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>15</v>
@@ -887,10 +888,10 @@
         <v>17</v>
       </c>
       <c r="G10" s="0">
-        <v>88500</v>
+        <v>65000</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>19</v>
@@ -901,8 +902,8 @@
       <c r="K10" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="0" t="s">
-        <v>35</v>
+      <c r="L10" s="0">
+        <v>0</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>17</v>
@@ -919,7 +920,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>15</v>
@@ -928,10 +929,10 @@
         <v>17</v>
       </c>
       <c r="G11" s="0">
-        <v>101000</v>
+        <v>65000</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>19</v>
@@ -942,8 +943,8 @@
       <c r="K11" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="0" t="s">
-        <v>37</v>
+      <c r="L11" s="0">
+        <v>0</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>17</v>
@@ -960,10 +961,10 @@
         <v>15</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>17</v>
@@ -972,7 +973,7 @@
         <v>65000</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>19</v>
@@ -983,8 +984,8 @@
       <c r="K12" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="0" t="s">
-        <v>30</v>
+      <c r="L12" s="0">
+        <v>0</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>17</v>
@@ -992,28 +993,28 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="0">
-        <v>50000</v>
+        <v>65000</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>19</v>
@@ -1024,8 +1025,8 @@
       <c r="K13" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="0" t="s">
-        <v>30</v>
+      <c r="L13" s="0">
+        <v>0</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>17</v>
@@ -1042,7 +1043,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>15</v>
@@ -1054,7 +1055,7 @@
         <v>65000</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>19</v>
@@ -1065,8 +1066,8 @@
       <c r="K14" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="0" t="s">
-        <v>30</v>
+      <c r="L14" s="0">
+        <v>0</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>17</v>
@@ -1083,7 +1084,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>15</v>
@@ -1095,7 +1096,7 @@
         <v>65000</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>19</v>
@@ -1106,8 +1107,8 @@
       <c r="K15" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="0" t="s">
-        <v>30</v>
+      <c r="L15" s="0">
+        <v>0</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>17</v>
@@ -1115,19 +1116,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>17</v>
@@ -1147,10 +1148,379 @@
       <c r="K16" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="0" t="s">
-        <v>30</v>
+      <c r="L16" s="0">
+        <v>0</v>
       </c>
       <c r="M16" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="0">
+        <v>60000</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="0">
+        <v>0</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="0">
+        <v>180000</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="0">
+        <v>0</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="0">
+        <v>90000</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="0">
+        <v>0</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="0">
+        <v>55000</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="0">
+        <v>0</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="0">
+        <v>50000</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="0">
+        <v>0</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="0">
+        <v>130000</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="0">
+        <v>0</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="0">
+        <v>130000</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="0">
+        <v>0</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="0">
+        <v>130000</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="0">
+        <v>0</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="0">
+        <v>130000</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="0">
+        <v>0</v>
+      </c>
+      <c r="M25" s="0" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Suvella/bin/Debug/net8.0-windows/orders.xlsx
+++ b/Suvella/bin/Debug/net8.0-windows/orders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -109,18 +109,13 @@
     <t>Bông lan trứng muối matcha: 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Tiramisu chiffon: 1
-</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>Paid</t>
   </si>
   <si>
     <t>Tra</t>
   </si>
   <si>
-    <t xml:space="preserve">Tiramisu chiffon: 1
-</t>
+    <t>Shipped</t>
   </si>
 </sst>
 </file>
@@ -643,7 +638,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>25</v>
@@ -655,7 +650,7 @@
         <v>55000</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>19</v>
@@ -666,8 +661,8 @@
       <c r="K5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>32</v>
+      <c r="L5" s="0">
+        <v>0</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>22</v>
@@ -675,7 +670,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>28</v>
@@ -684,7 +679,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>29</v>
@@ -699,7 +694,7 @@
         <v>18</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>20</v>
@@ -707,8 +702,8 @@
       <c r="K6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="0" t="s">
-        <v>32</v>
+      <c r="L6" s="0">
+        <v>0</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>22</v>
